--- a/data/trans_bre/P0902-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,75</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>53,37%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 19,53</t>
+          <t>9,95; 19,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,39; 78,98</t>
+          <t>32,54; 79,23</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>30,5%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,93</t>
+          <t>-0,61; 6,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 50,31</t>
+          <t>-3,03; 80,2</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,25</t>
+          <t>-1,13; 4,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 70,7</t>
+          <t>-13,08; 72,73</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,56%</t>
+          <t>51,74%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,89</t>
+          <t>3,04; 8,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,06; 65,78</t>
+          <t>25,09; 91,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P0902-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 11,46</t>
+          <t>4,45; 10,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,31</t>
+          <t>8,79; 16,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 18,23</t>
+          <t>9,81; 18,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 19,36</t>
+          <t>9,85; 19,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 83,63</t>
+          <t>26,21; 80,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 78,06</t>
+          <t>34,73; 81,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,14; 98,13</t>
+          <t>42,91; 101,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,54; 79,23</t>
+          <t>32,35; 80,01</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,06</t>
+          <t>2,49; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,16</t>
+          <t>3,15; 7,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,14</t>
+          <t>3,3; 7,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,01</t>
+          <t>-0,65; 6,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,3; 140,75</t>
+          <t>42,18; 143,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,02; 129,35</t>
+          <t>45,22; 132,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,25; 128,23</t>
+          <t>46,18; 124,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 80,2</t>
+          <t>-3,92; 81,24</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,37</t>
+          <t>0,81; 7,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 5,68</t>
+          <t>-1,81; 5,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,38</t>
+          <t>0,56; 7,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,27</t>
+          <t>-1,53; 4,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 252,38</t>
+          <t>8,87; 249,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 146,01</t>
+          <t>-25,67; 128,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,25; 211,99</t>
+          <t>7,93; 203,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 72,73</t>
+          <t>-16,67; 68,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,88; 7,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,72</t>
+          <t>7,24; 10,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,13</t>
+          <t>6,77; 10,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,87</t>
+          <t>2,74; 8,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>55,09; 104,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,08; 107,28</t>
+          <t>61,13; 103,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,28; 118,83</t>
+          <t>66,94; 118,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,09; 91,27</t>
+          <t>23,71; 86,73</t>
         </is>
       </c>
     </row>
